--- a/jumpyStreetProjectPlan.xlsx
+++ b/jumpyStreetProjectPlan.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kelly\Software Development\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\__Wake Tech SGD\_2019 Fall Semester\Software Development\Crossy Road 9-25\crossy-road-group-a\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,14 +24,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="28">
   <si>
     <t>Jumpy Street</t>
   </si>
   <si>
-    <t>Project Lead:</t>
-  </si>
-  <si>
     <t>Estimated Implementation</t>
   </si>
   <si>
@@ -102,13 +99,22 @@
   </si>
   <si>
     <t>Menu/UI programming</t>
+  </si>
+  <si>
+    <t>Group A: Lauren Kelly, Lucas Mills, Andrew Jennings</t>
+  </si>
+  <si>
+    <t>Pick out and add model and sound assets</t>
+  </si>
+  <si>
+    <t>Raycasting obstacles</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,8 +135,29 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -141,6 +168,21 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -168,10 +210,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -183,9 +238,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -194,14 +246,23 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -480,286 +541,323 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="57.28515625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="12" style="4" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" style="3" customWidth="1"/>
-    <col min="5" max="16384" width="8.85546875" style="3"/>
+    <col min="1" max="1" width="57.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12" style="2" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:4" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="55.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+    </row>
+    <row r="2" spans="1:4" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+    </row>
+    <row r="3" spans="1:4" s="3" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" s="8" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="C3" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="41.45" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="5"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="41.45" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="5"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="41.45" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="5"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="41.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="10">
+        <v>43726</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="41.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="10">
+        <v>43731</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="41.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="10">
+        <v>43726</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="10">
+        <v>43726</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="10">
+        <v>43733</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="10">
+        <v>43733</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="10">
+        <v>43733</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="10">
+        <v>43740</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="5"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="5"/>
+    </row>
+    <row r="22" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="5"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="5"/>
+    </row>
+    <row r="23" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="5"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="5"/>
+    </row>
+    <row r="24" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="5"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="5"/>
+    </row>
+    <row r="25" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="5"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="5"/>
+    </row>
+    <row r="26" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="5"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="5"/>
+    </row>
+    <row r="27" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="5"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="5"/>
+    </row>
+    <row r="28" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="5"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="5"/>
+    </row>
+    <row r="29" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="5"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="5"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="5"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="5"/>
+    </row>
+    <row r="31" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="41.45" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="1"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="41.45" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="1"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="41.45" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="1"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="41.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="7">
-        <v>43726</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="41.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="7">
-        <v>43726</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="41.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="7">
-        <v>43726</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="7">
-        <v>43733</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="7">
-        <v>43733</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="7">
-        <v>43733</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="1"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="1"/>
-    </row>
-    <row r="20" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="1"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="1"/>
-    </row>
-    <row r="21" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="1"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="1"/>
-    </row>
-    <row r="22" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="1"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="1"/>
-    </row>
-    <row r="23" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="1"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="1"/>
-    </row>
-    <row r="24" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="1"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="1"/>
-    </row>
-    <row r="25" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="1"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="1"/>
-    </row>
-    <row r="26" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="1"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="1"/>
-    </row>
-    <row r="27" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="1"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="1"/>
-    </row>
-    <row r="28" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="1"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="1"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D19:D28">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D20:D29">
       <formula1>$D$4:$D$6</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Estimated completion date" prompt="Enter the expected due date for the feature." sqref="B3 B10:B28"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Who is in charge of the feature?" prompt="Enter the name of the teammate who is lead for the feature." sqref="C3 C10:C28"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Estimated completion date" prompt="Enter the expected due date for the feature." sqref="B3 B10:B29"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Who is in charge of the feature?" prompt="Enter the name of the teammate who is lead for the feature." sqref="C3 C10:C29"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Status" prompt="Use the dropdown menu to choose: Not implemented, In Progress or Done." sqref="D3"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/jumpyStreetProjectPlan.xlsx
+++ b/jumpyStreetProjectPlan.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\__Wake Tech SGD\_2019 Fall Semester\Software Development\Crossy Road 9-25\crossy-road-group-a\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\__Wake Tech SGD\_2019 Fall Semester\Software Development\Crossy Road 10-02\crossy-road-group-a\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="38">
   <si>
     <t>Jumpy Street</t>
   </si>
@@ -53,15 +53,9 @@
     <t>Insert a row above to add more features to the list.</t>
   </si>
   <si>
-    <t>Procedural code</t>
-  </si>
-  <si>
     <t>Movement</t>
   </si>
   <si>
-    <t>Score/High Score</t>
-  </si>
-  <si>
     <t>Death conditions</t>
   </si>
   <si>
@@ -108,6 +102,42 @@
   </si>
   <si>
     <t>Raycasting obstacles</t>
+  </si>
+  <si>
+    <t>Tile generation</t>
+  </si>
+  <si>
+    <t>Random instantiation</t>
+  </si>
+  <si>
+    <t>Character Customization</t>
+  </si>
+  <si>
+    <t>High Score system</t>
+  </si>
+  <si>
+    <t>Update UI with high scores and details</t>
+  </si>
+  <si>
+    <t>Research timed event row (train)</t>
+  </si>
+  <si>
+    <t>Expand tile system to prep instantiation (write water, grass, and car logic)</t>
+  </si>
+  <si>
+    <t>"Max Y" global variable, informs score and camera</t>
+  </si>
+  <si>
+    <t>Setting up player character animations</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>Touch ups</t>
+  </si>
+  <si>
+    <t>Lauren/Andrew</t>
   </si>
 </sst>
 </file>
@@ -541,10 +571,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -566,7 +596,7 @@
     </row>
     <row r="2" spans="1:4" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -612,72 +642,72 @@
     </row>
     <row r="7" spans="1:4" ht="41.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B7" s="10">
         <v>43726</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="41.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B8" s="10">
         <v>43731</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>5</v>
+        <v>18</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="41.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B9" s="10">
         <v>43726</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B10" s="10">
         <v>43726</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B11" s="10">
         <v>43733</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>5</v>
+        <v>18</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -688,141 +718,211 @@
         <v>43733</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>5</v>
+        <v>16</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B13" s="10">
         <v>43733</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:4" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B14" s="10">
-        <v>43740</v>
+        <v>43747</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D14" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="B15" s="10">
+        <v>43747</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="B16" s="10">
+        <v>43747</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="10">
+        <v>43754</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="10"/>
+      <c r="C18" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
       <c r="D18" s="14" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
+        <v>31</v>
+      </c>
+      <c r="B19" s="10"/>
+      <c r="C19" s="9" t="s">
+        <v>18</v>
+      </c>
       <c r="D19" s="14" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
+      <c r="C20" s="9" t="s">
+        <v>16</v>
+      </c>
       <c r="D20" s="14" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="5"/>
+    <row r="21" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="5"/>
-    </row>
-    <row r="22" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="5"/>
+      <c r="C21" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>30</v>
+      </c>
       <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="5"/>
-    </row>
-    <row r="23" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="5"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="5"/>
-    </row>
-    <row r="24" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="5"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="5"/>
-    </row>
-    <row r="25" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="5"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="5"/>
-    </row>
-    <row r="26" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="5"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="5"/>
-    </row>
-    <row r="27" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="5"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="5"/>
+      <c r="C22" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="28" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5"/>
@@ -836,28 +936,70 @@
       <c r="C29" s="9"/>
       <c r="D29" s="5"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5"/>
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
       <c r="D30" s="5"/>
     </row>
-    <row r="31" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="7" t="s">
+    <row r="31" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="5"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="5"/>
+    </row>
+    <row r="32" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="5"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="5"/>
+    </row>
+    <row r="33" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="5"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="5"/>
+    </row>
+    <row r="34" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="5"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="5"/>
+    </row>
+    <row r="35" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="5"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="5"/>
+    </row>
+    <row r="36" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="5"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="5"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="5"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="5"/>
+    </row>
+    <row r="38" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D20:D29">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D27:D36">
       <formula1>$D$4:$D$6</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Estimated completion date" prompt="Enter the expected due date for the feature." sqref="B3 B10:B29"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Who is in charge of the feature?" prompt="Enter the name of the teammate who is lead for the feature." sqref="C3 C10:C29"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Estimated completion date" prompt="Enter the expected due date for the feature." sqref="B3 B10:B13 B14:B36"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Who is in charge of the feature?" prompt="Enter the name of the teammate who is lead for the feature." sqref="C3 C10:C13 C14:C36"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Status" prompt="Use the dropdown menu to choose: Not implemented, In Progress or Done." sqref="D3"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
